--- a/doc/01.项目启动文档-第24组.xlsx
+++ b/doc/01.项目启动文档-第24组.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arch_\Desktop\Work\CausedByEating\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaWeb\CauseedByEating\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A53CED-C1FB-4441-BAE2-F01D40AA175F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29260A5-885F-4E1C-9283-77E8F90162D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人员分组表" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,18 +136,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>讨论分工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>潘隆财</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,10 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>讨论分工以及确定6.19和6.20的工作内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>潘隆财</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,6 +237,34 @@
   </si>
   <si>
     <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘隆财，王珺戈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定实训的内容以及分工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">实训的主要目标是实现类似饿了么的点餐业务线功能
+潘隆财负责后端接口的开发
+王珺戈负责前端内容的开发
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认购物车模块前后端的对接方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端提供set和delete接口
+前端中，购物车数量从1~0变化时调用delete，其他情况调用set即可</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -334,7 +350,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +360,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -526,20 +548,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,14 +865,14 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.625" style="4"/>
+    <col min="1" max="1" width="8.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -842,20 +880,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -868,22 +906,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09345C04-CA22-4810-B0AB-A5FAFFA6DEF5}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="7"/>
-    <col min="2" max="2" width="17.875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="7"/>
+    <col min="2" max="2" width="17.88671875" style="9" customWidth="1"/>
     <col min="3" max="3" width="18" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="31.25" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="31.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -896,7 +934,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -917,373 +955,381 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="11">
         <v>45462</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="11">
         <v>45462</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="C5" s="11">
         <v>45471</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="11">
         <v>45471</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="11">
         <v>45471</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" s="11">
         <v>45471</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" s="11">
         <v>45463</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" s="11">
         <v>45463</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="11">
         <v>45464</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" s="11">
         <v>45464</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="11">
         <v>45465</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" s="11">
         <v>45465</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C15" s="11">
         <v>45465</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" s="11">
         <v>45465</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" s="11">
         <v>45465</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C18" s="11">
         <v>45467</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C19" s="11">
         <v>45474</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C20" s="11">
         <v>45474</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" s="11">
         <v>45474</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="11">
         <v>45474</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" s="11">
         <v>45474</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+    <row r="24" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="11">
+        <v>45475</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1292,7 +1338,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1301,7 +1347,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1310,7 +1356,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1319,7 +1365,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1328,9 +1374,9 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
@@ -1349,73 +1395,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438817ED-C885-4C5D-894A-F997482AE574}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="14"/>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="14"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="27">
+        <v>45469</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="D1" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:4" s="8" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-    </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
@@ -1423,94 +1485,100 @@
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="27">
+        <v>45474</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10">
-        <v>6.19</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
     </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>27</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B15" s="22"/>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:4" ht="130.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1525,22 +1593,22 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="15"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
@@ -1554,11 +1622,11 @@
         <v>21</v>
       </c>
       <c r="E2" s="17"/>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -1566,9 +1634,9 @@
       <c r="C3" s="16"/>
       <c r="D3" s="18"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -1576,9 +1644,9 @@
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="29"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -1586,9 +1654,9 @@
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
-      <c r="F5" s="29"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1596,9 +1664,9 @@
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="29"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -1606,9 +1674,9 @@
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="29"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -1616,9 +1684,9 @@
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="29"/>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -1626,7 +1694,7 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="29"/>
+      <c r="F9" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/doc/01.项目启动文档-第24组.xlsx
+++ b/doc/01.项目启动文档-第24组.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaWeb\CauseedByEating\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arch_\Desktop\Work\CausedByEating\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29260A5-885F-4E1C-9283-77E8F90162D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E5666D-DDD7-47FF-B4DF-1671498B55D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人员分组表" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="64">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改用户信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,6 +261,22 @@
   <si>
     <t>后端提供set和delete接口
 前端中，购物车数量从1~0变化时调用delete，其他情况调用set即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成购物车功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成订单与支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成用户信息管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成订单管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,41 +548,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -578,6 +557,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,14 +877,14 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="4"/>
+    <col min="1" max="1" width="8.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -880,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -888,7 +900,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -906,36 +918,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09345C04-CA22-4810-B0AB-A5FAFFA6DEF5}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="7"/>
-    <col min="2" max="2" width="17.88671875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="7"/>
+    <col min="2" max="2" width="17.875" style="9" customWidth="1"/>
     <col min="3" max="3" width="18" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="31.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
       <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
@@ -955,7 +967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -972,7 +984,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -989,7 +1001,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -1006,7 +1018,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -1023,7 +1035,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -1040,7 +1052,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1057,7 +1069,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1074,7 +1086,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1091,7 +1103,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -1108,7 +1120,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -1125,7 +1137,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1142,7 +1154,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -1159,7 +1171,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -1176,7 +1188,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -1193,7 +1205,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
@@ -1210,7 +1222,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -1227,7 +1239,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1244,7 +1256,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1261,7 +1273,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1278,7 +1290,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1295,7 +1307,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1306,18 +1318,18 @@
         <v>45474</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="11">
         <v>45475</v>
@@ -1329,43 +1341,75 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+    <row r="25" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="11">
+        <v>45476</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+    <row r="26" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="11">
+        <v>45476</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+    <row r="27" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="11">
+        <v>45476</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+    <row r="28" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="11">
+        <v>45476</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1374,9 +1418,9 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
@@ -1397,178 +1441,181 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438817ED-C885-4C5D-894A-F997482AE574}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="14"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="14"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27">
+      <c r="B1" s="21">
         <v>45469</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-    </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:4" s="8" customFormat="1" ht="107.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-    </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-    </row>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="34"/>
-    </row>
-    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+    </row>
+    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="21">
         <v>45474</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-    </row>
-    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-    </row>
-    <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-    </row>
-    <row r="14" spans="1:4" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:4" ht="103.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-    </row>
-    <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -1576,9 +1623,6 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1593,22 +1637,22 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="15"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
@@ -1622,11 +1666,11 @@
         <v>21</v>
       </c>
       <c r="E2" s="17"/>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -1634,9 +1678,9 @@
       <c r="C3" s="16"/>
       <c r="D3" s="18"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="26"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="35"/>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -1644,9 +1688,9 @@
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="35"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -1654,9 +1698,9 @@
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
-      <c r="F5" s="26"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1664,9 +1708,9 @@
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="26"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="35"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -1674,9 +1718,9 @@
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="26"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -1684,9 +1728,9 @@
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -1694,7 +1738,7 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="26"/>
+      <c r="F9" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
